--- a/results/трекеры2.xlsx
+++ b/results/трекеры2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_alt\_proj\FLUOVISOR2\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\database\fluovisor\FLUOVISOR2\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E6E117-D858-4C84-8BB6-5643534C7D45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E5EDBF-8976-4A67-BDFA-6A9A68B2B8DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6990" yWindow="345" windowWidth="20715" windowHeight="11400" activeTab="2" xr2:uid="{01E04DDC-D5D2-4D32-BF2C-9F37008BB4EE}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="23310" windowHeight="13740" xr2:uid="{01E04DDC-D5D2-4D32-BF2C-9F37008BB4EE}"/>
   </bookViews>
   <sheets>
     <sheet name="740" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="660" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="17">
   <si>
     <t xml:space="preserve">Средняя ошибка </t>
   </si>
@@ -440,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4174942-EE29-4E41-BB77-7205379AB052}">
-  <dimension ref="A1:L55"/>
+  <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,12 +451,12 @@
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -495,10 +494,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>50</v>
       </c>
+      <c r="B3">
+        <v>29.2</v>
+      </c>
       <c r="C3">
         <v>25.1</v>
       </c>
@@ -527,10 +529,13 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>75</v>
       </c>
+      <c r="B4">
+        <v>29.2</v>
+      </c>
       <c r="C4">
         <v>32.5</v>
       </c>
@@ -559,10 +564,13 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>100</v>
       </c>
+      <c r="B5">
+        <v>29.2</v>
+      </c>
       <c r="C5">
         <v>30.8</v>
       </c>
@@ -591,10 +599,13 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>125</v>
       </c>
+      <c r="B6">
+        <v>29.2</v>
+      </c>
       <c r="C6">
         <v>30.8</v>
       </c>
@@ -623,10 +634,13 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>150</v>
       </c>
+      <c r="B7">
+        <v>29.2</v>
+      </c>
       <c r="C7">
         <v>32.9</v>
       </c>
@@ -655,10 +669,13 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>175</v>
       </c>
+      <c r="B8">
+        <v>29.2</v>
+      </c>
       <c r="C8">
         <v>34.1</v>
       </c>
@@ -687,10 +704,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>200</v>
       </c>
+      <c r="B9">
+        <v>29.2</v>
+      </c>
       <c r="C9">
         <v>33.1</v>
       </c>
@@ -716,10 +736,13 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>225</v>
       </c>
+      <c r="B10">
+        <v>29.2</v>
+      </c>
       <c r="C10">
         <v>32</v>
       </c>
@@ -745,10 +768,13 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>250</v>
       </c>
+      <c r="B11">
+        <v>29.2</v>
+      </c>
       <c r="C11">
         <v>35.299999999999997</v>
       </c>
@@ -773,13 +799,20 @@
       <c r="L11">
         <v>30.1</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11">
+        <f>MIN(B3:L11)</f>
+        <v>3.5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -817,10 +850,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>50</v>
       </c>
+      <c r="B14">
+        <v>67.7</v>
+      </c>
       <c r="C14">
         <v>66.900000000000006</v>
       </c>
@@ -849,10 +885,13 @@
         <v>65.7</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>75</v>
       </c>
+      <c r="B15">
+        <v>67.7</v>
+      </c>
       <c r="C15">
         <v>79.3</v>
       </c>
@@ -881,10 +920,13 @@
         <v>57.1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>100</v>
       </c>
+      <c r="B16">
+        <v>67.7</v>
+      </c>
       <c r="C16">
         <v>77.03</v>
       </c>
@@ -913,10 +955,13 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>125</v>
       </c>
+      <c r="B17">
+        <v>67.7</v>
+      </c>
       <c r="C17">
         <v>76.900000000000006</v>
       </c>
@@ -945,10 +990,13 @@
         <v>42.3</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>150</v>
       </c>
+      <c r="B18">
+        <v>67.7</v>
+      </c>
       <c r="C18">
         <v>84.4</v>
       </c>
@@ -977,10 +1025,13 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>175</v>
       </c>
+      <c r="B19">
+        <v>67.7</v>
+      </c>
       <c r="C19">
         <v>83.4</v>
       </c>
@@ -1009,10 +1060,13 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>200</v>
       </c>
+      <c r="B20">
+        <v>67.7</v>
+      </c>
       <c r="C20">
         <v>82.3</v>
       </c>
@@ -1038,10 +1092,13 @@
         <v>54.4</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>225</v>
       </c>
+      <c r="B21">
+        <v>67.7</v>
+      </c>
       <c r="C21">
         <v>78.400000000000006</v>
       </c>
@@ -1067,10 +1124,13 @@
         <v>62.7</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>250</v>
       </c>
+      <c r="B22">
+        <v>67.7</v>
+      </c>
       <c r="C22">
         <v>81.400000000000006</v>
       </c>
@@ -1095,13 +1155,20 @@
       <c r="L22">
         <v>84.2</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M22">
+        <f>MIN(B14:L22)</f>
+        <v>8.6</v>
+      </c>
+      <c r="N22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -1139,7 +1206,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>50</v>
       </c>
@@ -1171,7 +1238,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>75</v>
       </c>
@@ -1203,7 +1270,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>100</v>
       </c>
@@ -1235,7 +1302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>125</v>
       </c>
@@ -1267,7 +1334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>150</v>
       </c>
@@ -1299,7 +1366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>175</v>
       </c>
@@ -1331,7 +1398,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>200</v>
       </c>
@@ -1360,7 +1427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>225</v>
       </c>
@@ -1787,6 +1854,9 @@
       <c r="A47">
         <v>50</v>
       </c>
+      <c r="B47">
+        <v>345</v>
+      </c>
       <c r="C47">
         <v>527.5</v>
       </c>
@@ -1819,6 +1889,9 @@
       <c r="A48">
         <v>75</v>
       </c>
+      <c r="B48">
+        <v>345</v>
+      </c>
       <c r="C48">
         <v>562.29999999999995</v>
       </c>
@@ -1847,10 +1920,13 @@
         <v>1035.9000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>100</v>
       </c>
+      <c r="B49">
+        <v>345</v>
+      </c>
       <c r="C49">
         <v>562.29999999999995</v>
       </c>
@@ -1879,10 +1955,13 @@
         <v>805.6</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>125</v>
       </c>
+      <c r="B50">
+        <v>345</v>
+      </c>
       <c r="C50">
         <v>562.29999999999995</v>
       </c>
@@ -1911,10 +1990,13 @@
         <v>514.20000000000005</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>150</v>
       </c>
+      <c r="B51">
+        <v>345</v>
+      </c>
       <c r="C51">
         <v>562.29999999999995</v>
       </c>
@@ -1943,10 +2025,13 @@
         <v>432.6</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>175</v>
       </c>
+      <c r="B52">
+        <v>345</v>
+      </c>
       <c r="C52">
         <v>562.29999999999995</v>
       </c>
@@ -1975,10 +2060,13 @@
         <v>878</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>200</v>
       </c>
+      <c r="B53">
+        <v>345</v>
+      </c>
       <c r="C53">
         <v>562.29999999999995</v>
       </c>
@@ -2004,10 +2092,13 @@
         <v>441.8</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>225</v>
       </c>
+      <c r="B54">
+        <v>345</v>
+      </c>
       <c r="C54">
         <v>562.29999999999995</v>
       </c>
@@ -2033,10 +2124,13 @@
         <v>539.1</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>250</v>
       </c>
+      <c r="B55">
+        <v>345</v>
+      </c>
       <c r="C55">
         <v>562.29999999999995</v>
       </c>
@@ -2060,6 +2154,13 @@
       </c>
       <c r="L55">
         <v>787.3</v>
+      </c>
+      <c r="M55">
+        <f>MIN(B47:L55)</f>
+        <v>29.9</v>
+      </c>
+      <c r="N55" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -2069,10 +2170,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1A9872D-45C7-4EE2-8513-830E294FC15F}">
-  <dimension ref="A1:L55"/>
+  <dimension ref="A1:O55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2081,12 +2182,12 @@
     <col min="10" max="10" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2124,7 +2225,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>50</v>
       </c>
@@ -2156,7 +2257,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>75</v>
       </c>
@@ -2185,7 +2286,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>100</v>
       </c>
@@ -2214,7 +2315,7 @@
         <v>51.3</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>125</v>
       </c>
@@ -2243,7 +2344,7 @@
         <v>55.7</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>150</v>
       </c>
@@ -2272,7 +2373,7 @@
         <v>66.8</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>175</v>
       </c>
@@ -2301,7 +2402,7 @@
         <v>69.5</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>200</v>
       </c>
@@ -2327,7 +2428,7 @@
         <v>66.5</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>225</v>
       </c>
@@ -2353,7 +2454,7 @@
         <v>77.5</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>250</v>
       </c>
@@ -2381,13 +2482,23 @@
       <c r="L11">
         <v>62.1</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11">
+        <f>MIN(C3:L11)</f>
+        <v>5.4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -2425,7 +2536,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>50</v>
       </c>
@@ -2457,7 +2568,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>75</v>
       </c>
@@ -2486,7 +2597,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>100</v>
       </c>
@@ -2515,7 +2626,7 @@
         <v>109.2</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>125</v>
       </c>
@@ -2544,7 +2655,7 @@
         <v>124.2</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>150</v>
       </c>
@@ -2573,7 +2684,7 @@
         <v>152.5</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>175</v>
       </c>
@@ -2602,7 +2713,7 @@
         <v>166.8</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>200</v>
       </c>
@@ -2628,7 +2739,7 @@
         <v>156.80000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>225</v>
       </c>
@@ -2654,7 +2765,7 @@
         <v>182.3</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>250</v>
       </c>
@@ -2682,13 +2793,23 @@
       <c r="L22">
         <v>171.7</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M22">
+        <f>MIN(C14:L22)</f>
+        <v>19.399999999999999</v>
+      </c>
+      <c r="N22" t="s">
+        <v>11</v>
+      </c>
+      <c r="O22">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -2726,7 +2847,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>50</v>
       </c>
@@ -2758,7 +2879,7 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>75</v>
       </c>
@@ -2787,7 +2908,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>100</v>
       </c>
@@ -2816,7 +2937,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>125</v>
       </c>
@@ -2845,7 +2966,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>150</v>
       </c>
@@ -2874,7 +2995,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>175</v>
       </c>
@@ -2903,7 +3024,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>200</v>
       </c>
@@ -2932,7 +3053,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>225</v>
       </c>
@@ -3398,7 +3519,7 @@
         <v>1076.4000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>100</v>
       </c>
@@ -3427,7 +3548,7 @@
         <v>774.1</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>125</v>
       </c>
@@ -3456,7 +3577,7 @@
         <v>862.6</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>150</v>
       </c>
@@ -3485,7 +3606,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>175</v>
       </c>
@@ -3514,7 +3635,7 @@
         <v>944.6</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>200</v>
       </c>
@@ -3540,7 +3661,7 @@
         <v>790.4</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>225</v>
       </c>
@@ -3566,7 +3687,7 @@
         <v>860.6</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>250</v>
       </c>
@@ -3593,6 +3714,16 @@
       </c>
       <c r="L55">
         <v>932.5</v>
+      </c>
+      <c r="M55">
+        <f>MIN(C47:L55)</f>
+        <v>118.1</v>
+      </c>
+      <c r="N55" t="s">
+        <v>5</v>
+      </c>
+      <c r="O55">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -3602,10 +3733,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A06CF09C-8EFB-499F-91C7-F0EBD94EE1C9}">
-  <dimension ref="A1:L55"/>
+  <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="L43" sqref="L43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3614,12 +3745,12 @@
     <col min="10" max="10" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3657,7 +3788,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>50</v>
       </c>
@@ -3689,7 +3820,7 @@
         <v>47.9</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>75</v>
       </c>
@@ -3721,7 +3852,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>100</v>
       </c>
@@ -3753,7 +3884,7 @@
         <v>45.4</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>125</v>
       </c>
@@ -3785,7 +3916,7 @@
         <v>30.3</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>150</v>
       </c>
@@ -3817,7 +3948,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>175</v>
       </c>
@@ -3849,7 +3980,7 @@
         <v>48.5</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>200</v>
       </c>
@@ -3878,7 +4009,7 @@
         <v>57.7</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>225</v>
       </c>
@@ -3907,7 +4038,7 @@
         <v>52.9</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>250</v>
       </c>
@@ -3935,13 +4066,23 @@
       <c r="L11">
         <v>44.7</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11">
+        <f>MIN(C3:L11)</f>
+        <v>4.7</v>
+      </c>
+      <c r="N11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -3979,7 +4120,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>50</v>
       </c>
@@ -4011,7 +4152,7 @@
         <v>121.6</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>75</v>
       </c>
@@ -4043,7 +4184,7 @@
         <v>107.7</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>100</v>
       </c>
@@ -4075,7 +4216,7 @@
         <v>99.5</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>125</v>
       </c>
@@ -4107,7 +4248,7 @@
         <v>77.5</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>150</v>
       </c>
@@ -4139,7 +4280,7 @@
         <v>108.1</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>175</v>
       </c>
@@ -4171,7 +4312,7 @@
         <v>127.3</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>200</v>
       </c>
@@ -4200,7 +4341,7 @@
         <v>147.5</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>225</v>
       </c>
@@ -4229,7 +4370,7 @@
         <v>140.9</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>250</v>
       </c>
@@ -4257,13 +4398,23 @@
       <c r="L22">
         <v>113.8</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M22">
+        <f>MIN(C14:L22)</f>
+        <v>17</v>
+      </c>
+      <c r="N22" t="s">
+        <v>11</v>
+      </c>
+      <c r="O22">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -4301,7 +4452,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>50</v>
       </c>
@@ -4333,7 +4484,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>75</v>
       </c>
@@ -4365,7 +4516,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>100</v>
       </c>
@@ -4397,7 +4548,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>125</v>
       </c>
@@ -4429,7 +4580,7 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>150</v>
       </c>
@@ -4461,7 +4612,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>175</v>
       </c>
@@ -4493,7 +4644,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>200</v>
       </c>
@@ -4522,7 +4673,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>225</v>
       </c>
@@ -5009,7 +5160,7 @@
         <v>870.1</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>100</v>
       </c>
@@ -5041,7 +5192,7 @@
         <v>867.2</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>125</v>
       </c>
@@ -5073,7 +5224,7 @@
         <v>990.7</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>150</v>
       </c>
@@ -5105,7 +5256,7 @@
         <v>964.5</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>175</v>
       </c>
@@ -5137,7 +5288,7 @@
         <v>909.9</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>200</v>
       </c>
@@ -5166,7 +5317,7 @@
         <v>972.8</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>225</v>
       </c>
@@ -5195,7 +5346,7 @@
         <v>889.3</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>250</v>
       </c>
@@ -5222,6 +5373,13 @@
       </c>
       <c r="L55">
         <v>617.79999999999995</v>
+      </c>
+      <c r="M55">
+        <f>MIN(C47:L55)</f>
+        <v>130.69999999999999</v>
+      </c>
+      <c r="N55" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
